--- a/teaching/traditional_assets/database/data/pakistan/pakistan_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/pakistan/pakistan_insurance_prop_cas.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ17"/>
+  <dimension ref="A1:AQ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.06225</v>
+        <v>0.05835</v>
       </c>
       <c r="E2">
-        <v>-0.0161</v>
+        <v>0.02135</v>
       </c>
       <c r="G2">
-        <v>0.1509254802268385</v>
+        <v>0.1142302764959763</v>
       </c>
       <c r="H2">
-        <v>0.1509254802268385</v>
+        <v>0.1142302764959763</v>
       </c>
       <c r="I2">
-        <v>0.10407573533793</v>
+        <v>0.118088667831779</v>
       </c>
       <c r="J2">
-        <v>0.08342552062531906</v>
+        <v>0.09001447576049752</v>
       </c>
       <c r="K2">
-        <v>30.168</v>
+        <v>56.017</v>
       </c>
       <c r="L2">
-        <v>0.05672467997412717</v>
+        <v>0.07741528017899615</v>
       </c>
       <c r="M2">
-        <v>38.834</v>
+        <v>31.62</v>
       </c>
       <c r="N2">
-        <v>0.09702702635175482</v>
+        <v>0.06860222425680923</v>
       </c>
       <c r="O2">
-        <v>1.287258021744895</v>
+        <v>0.5644714997232982</v>
       </c>
       <c r="P2">
-        <v>38.834</v>
+        <v>31.62</v>
       </c>
       <c r="Q2">
-        <v>0.09702702635175482</v>
+        <v>0.06860222425680923</v>
       </c>
       <c r="R2">
-        <v>1.287258021744895</v>
+        <v>0.5644714997232982</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>99.499</v>
+        <v>139.599</v>
       </c>
       <c r="V2">
-        <v>0.2485989621201332</v>
+        <v>0.3028716604688904</v>
       </c>
       <c r="W2">
-        <v>0.03100323624595469</v>
+        <v>0.1145408302397202</v>
       </c>
       <c r="X2">
-        <v>0.07935697504549795</v>
+        <v>0.08267476957639411</v>
       </c>
       <c r="Y2">
-        <v>-0.04835373879954326</v>
+        <v>0.03186606066332608</v>
       </c>
       <c r="Z2">
-        <v>1.23782334984026</v>
+        <v>2.360468405131743</v>
       </c>
       <c r="AA2">
-        <v>0.0374394005968272</v>
+        <v>0.1396578558226124</v>
       </c>
       <c r="AB2">
-        <v>0.0787349448985807</v>
+        <v>0.08183617138370512</v>
       </c>
       <c r="AC2">
-        <v>-0.04052585320669479</v>
+        <v>0.05718129910827999</v>
       </c>
       <c r="AD2">
-        <v>7.963</v>
+        <v>11.49</v>
       </c>
       <c r="AE2">
-        <v>1.175967618790128</v>
+        <v>1.010513774675957</v>
       </c>
       <c r="AF2">
-        <v>9.138967618790128</v>
+        <v>12.50051377467596</v>
       </c>
       <c r="AG2">
-        <v>-90.36003238120986</v>
+        <v>-127.0984862253241</v>
       </c>
       <c r="AH2">
-        <v>0.02232403387986007</v>
+        <v>0.02640478437356928</v>
       </c>
       <c r="AI2">
-        <v>0.02130946351640324</v>
+        <v>0.02658436501276517</v>
       </c>
       <c r="AJ2">
-        <v>-0.2915978230970804</v>
+        <v>-0.3807401334576084</v>
       </c>
       <c r="AK2">
-        <v>-0.2743420507779621</v>
+        <v>-0.3844229154184557</v>
       </c>
       <c r="AL2">
-        <v>0.598</v>
+        <v>0.853</v>
       </c>
       <c r="AM2">
-        <v>0.598</v>
+        <v>0.853</v>
       </c>
       <c r="AN2">
-        <v>0.1225397411630734</v>
+        <v>0.1248302460752893</v>
       </c>
       <c r="AO2">
-        <v>91.87959866220737</v>
+        <v>99.85697538100821</v>
       </c>
       <c r="AP2">
-        <v>-1.390518018269545</v>
+        <v>-1.380829879138726</v>
       </c>
       <c r="AQ2">
-        <v>91.87959866220737</v>
+        <v>99.85697538100821</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Askari General Insurance Company Limited (KASE:AGIC)</t>
+          <t>EFU General Insurance Limited (KASE:EFUG)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.155</v>
+        <v>0.482</v>
       </c>
       <c r="E3">
-        <v>0.137</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="G3">
-        <v>0.2442857142857143</v>
+        <v>0.09511228533685601</v>
       </c>
       <c r="H3">
-        <v>0.2442857142857143</v>
+        <v>0.09511228533685601</v>
       </c>
       <c r="I3">
-        <v>0.2198287951145617</v>
+        <v>0.09616908850726552</v>
       </c>
       <c r="J3">
-        <v>0.1551991293508806</v>
+        <v>0.06460590048436812</v>
       </c>
       <c r="K3">
-        <v>2.11</v>
+        <v>19.7</v>
       </c>
       <c r="L3">
-        <v>0.1507142857142857</v>
+        <v>0.05204755614266843</v>
       </c>
       <c r="M3">
-        <v>0.527</v>
+        <v>16.9</v>
       </c>
       <c r="N3">
-        <v>0.04543103448275863</v>
+        <v>0.1127418278852568</v>
       </c>
       <c r="O3">
-        <v>0.2497630331753555</v>
+        <v>0.8578680203045684</v>
       </c>
       <c r="P3">
-        <v>0.527</v>
+        <v>16.9</v>
       </c>
       <c r="Q3">
-        <v>0.04543103448275863</v>
+        <v>0.1127418278852568</v>
       </c>
       <c r="R3">
-        <v>0.2497630331753555</v>
+        <v>0.8578680203045684</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.08</v>
+        <v>37.1</v>
       </c>
       <c r="V3">
-        <v>0.09310344827586207</v>
+        <v>0.247498332221481</v>
       </c>
       <c r="W3">
-        <v>0.1598484848484849</v>
+        <v>0.1626754748142031</v>
       </c>
       <c r="X3">
-        <v>0.08030420514177548</v>
+        <v>0.08261874623180028</v>
       </c>
       <c r="Y3">
-        <v>0.07954427970670937</v>
+        <v>0.08005672858240286</v>
       </c>
       <c r="Z3">
-        <v>1.213699090084422</v>
+        <v>4.166162177631507</v>
       </c>
       <c r="AA3">
-        <v>0.1883650420750583</v>
+        <v>0.2691586590497995</v>
       </c>
       <c r="AB3">
-        <v>0.07914876039700453</v>
+        <v>0.08181882354889017</v>
       </c>
       <c r="AC3">
-        <v>0.1092162816780538</v>
+        <v>0.1873398355009093</v>
       </c>
       <c r="AD3">
-        <v>0.7</v>
+        <v>3.75</v>
       </c>
       <c r="AE3">
-        <v>0.08198434198067671</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.7819843419806767</v>
+        <v>3.75</v>
       </c>
       <c r="AG3">
-        <v>-0.2980156580193234</v>
+        <v>-33.35</v>
       </c>
       <c r="AH3">
-        <v>0.06315500976118882</v>
+        <v>0.02440611780019525</v>
       </c>
       <c r="AI3">
-        <v>0.06166103985731196</v>
+        <v>0.02432695426532598</v>
       </c>
       <c r="AJ3">
-        <v>-0.02636843663925091</v>
+        <v>-0.2861432861432861</v>
       </c>
       <c r="AK3">
-        <v>-0.0256866109481791</v>
+        <v>-0.2849209739427595</v>
       </c>
       <c r="AL3">
-        <v>0.067</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="AM3">
-        <v>0.067</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="AN3">
-        <v>0.2138057422113622</v>
+        <v>0.09146341463414634</v>
       </c>
       <c r="AO3">
-        <v>45.67164179104478</v>
+        <v>428.235294117647</v>
       </c>
       <c r="AP3">
-        <v>-0.09102494136204135</v>
+        <v>-0.8134146341463415</v>
       </c>
       <c r="AQ3">
-        <v>45.67164179104478</v>
+        <v>428.235294117647</v>
       </c>
     </row>
     <row r="4">
@@ -859,46 +859,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0736</v>
+        <v>0.0546</v>
       </c>
       <c r="E4">
-        <v>0.04219999999999999</v>
+        <v>0.00143</v>
       </c>
       <c r="G4">
-        <v>0.6537735849056604</v>
+        <v>0.5766990291262136</v>
       </c>
       <c r="H4">
-        <v>0.6537735849056604</v>
+        <v>0.5766990291262136</v>
       </c>
       <c r="I4">
-        <v>0.5519095527481933</v>
+        <v>0.5309238949954576</v>
       </c>
       <c r="J4">
-        <v>0.392426056770169</v>
+        <v>0.369643240100611</v>
       </c>
       <c r="K4">
-        <v>4.06</v>
+        <v>3.69</v>
       </c>
       <c r="L4">
-        <v>0.3830188679245283</v>
+        <v>0.358252427184466</v>
       </c>
       <c r="M4">
-        <v>3.09</v>
+        <v>3.21</v>
       </c>
       <c r="N4">
-        <v>0.09686520376175549</v>
+        <v>0.09846625766871166</v>
       </c>
       <c r="O4">
-        <v>0.7610837438423645</v>
+        <v>0.8699186991869918</v>
       </c>
       <c r="P4">
-        <v>3.09</v>
+        <v>3.21</v>
       </c>
       <c r="Q4">
-        <v>0.09686520376175549</v>
+        <v>0.09846625766871166</v>
       </c>
       <c r="R4">
-        <v>0.7610837438423645</v>
+        <v>0.8699186991869918</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -907,73 +907,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>4.16</v>
+        <v>5.33</v>
       </c>
       <c r="V4">
-        <v>0.1304075235109718</v>
+        <v>0.1634969325153374</v>
       </c>
       <c r="W4">
-        <v>0.1444839857651245</v>
+        <v>0.2038674033149171</v>
       </c>
       <c r="X4">
-        <v>0.07839808632878127</v>
+        <v>0.08261425198762076</v>
       </c>
       <c r="Y4">
-        <v>0.06608589943634326</v>
+        <v>0.1212531513272963</v>
       </c>
       <c r="Z4">
-        <v>0.4701959279354407</v>
+        <v>0.7190016366598865</v>
       </c>
       <c r="AA4">
-        <v>0.1845171339090955</v>
+        <v>0.2657740946126027</v>
       </c>
       <c r="AB4">
-        <v>0.07806498710463354</v>
+        <v>0.08181742851523127</v>
       </c>
       <c r="AC4">
-        <v>0.106452146804462</v>
+        <v>0.1839566660973714</v>
       </c>
       <c r="AD4">
-        <v>0.098</v>
+        <v>0.525</v>
       </c>
       <c r="AE4">
-        <v>0.5637937043457553</v>
+        <v>0.2874194077339339</v>
       </c>
       <c r="AF4">
-        <v>0.6617937043457552</v>
+        <v>0.812419407733934</v>
       </c>
       <c r="AG4">
-        <v>-3.498206295654245</v>
+        <v>-4.517580592266066</v>
       </c>
       <c r="AH4">
-        <v>0.02032423982396987</v>
+        <v>0.02431489314856033</v>
       </c>
       <c r="AI4">
-        <v>0.03527347730043878</v>
+        <v>0.03248064069654657</v>
       </c>
       <c r="AJ4">
-        <v>-0.1231684988655834</v>
+        <v>-0.1608686390824972</v>
       </c>
       <c r="AK4">
-        <v>-0.2395737377534046</v>
+        <v>-0.2295236423267633</v>
       </c>
       <c r="AL4">
-        <v>0.008</v>
+        <v>0.047</v>
       </c>
       <c r="AM4">
-        <v>0.008</v>
+        <v>0.047</v>
       </c>
       <c r="AN4">
-        <v>0.0160840308550796</v>
+        <v>0.09381701215153682</v>
       </c>
       <c r="AO4">
-        <v>697.5</v>
+        <v>113.6170212765957</v>
       </c>
       <c r="AP4">
-        <v>-0.5741352856809855</v>
+        <v>-0.8072874539431855</v>
       </c>
       <c r="AQ4">
-        <v>697.5</v>
+        <v>113.6170212765957</v>
       </c>
     </row>
     <row r="5">
@@ -984,7 +984,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The United Insurance Company of Pakistan Limited (KASE:UNIC)</t>
+          <t>East West Insurance Company Limited (KASE:EWIC)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -993,28 +993,28 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.113</v>
+        <v>0.115</v>
       </c>
       <c r="E5">
-        <v>-0.00294</v>
+        <v>0.07980000000000001</v>
       </c>
       <c r="G5">
-        <v>0.2619883040935673</v>
+        <v>0.1381443298969072</v>
       </c>
       <c r="H5">
-        <v>0.2619883040935673</v>
+        <v>0.1381443298969072</v>
       </c>
       <c r="I5">
-        <v>0.2221623687519323</v>
+        <v>0.1670103092783505</v>
       </c>
       <c r="J5">
-        <v>0.1552926010430174</v>
+        <v>0.1465772044001613</v>
       </c>
       <c r="K5">
-        <v>2.81</v>
+        <v>1.57</v>
       </c>
       <c r="L5">
-        <v>0.164327485380117</v>
+        <v>0.1618556701030928</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1038,73 +1038,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>3.09</v>
+        <v>2.24</v>
       </c>
       <c r="V5">
-        <v>0.1919254658385093</v>
+        <v>0.03393939393939394</v>
       </c>
       <c r="W5">
-        <v>0.1101960784313726</v>
+        <v>0.2025806451612903</v>
       </c>
       <c r="X5">
-        <v>0.07934465849599556</v>
+        <v>0.08155288741232922</v>
       </c>
       <c r="Y5">
-        <v>0.03085141993537699</v>
+        <v>0.1210277577489611</v>
       </c>
       <c r="Z5">
-        <v>0.7792521172038571</v>
+        <v>1.57697935295074</v>
       </c>
       <c r="AA5">
-        <v>0.1210120881488652</v>
+        <v>0.2311492249522946</v>
       </c>
       <c r="AB5">
-        <v>0.07861529672969599</v>
+        <v>0.08149649977455876</v>
       </c>
       <c r="AC5">
-        <v>0.0423967914191692</v>
+        <v>0.1496527251777359</v>
       </c>
       <c r="AD5">
-        <v>0.652</v>
+        <v>0.151</v>
       </c>
       <c r="AE5">
-        <v>0.05511747170978461</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.7071174717097847</v>
+        <v>0.151</v>
       </c>
       <c r="AG5">
-        <v>-2.382882528290215</v>
+        <v>-2.089</v>
       </c>
       <c r="AH5">
-        <v>0.04207250130190526</v>
+        <v>0.002282656346842829</v>
       </c>
       <c r="AI5">
-        <v>0.02995357110232444</v>
+        <v>0.01546972646245262</v>
       </c>
       <c r="AJ5">
-        <v>-0.1737159817435899</v>
+        <v>-0.03268607907871885</v>
       </c>
       <c r="AK5">
-        <v>-0.116141194374691</v>
+        <v>-0.2777556176040421</v>
       </c>
       <c r="AL5">
-        <v>0.037</v>
+        <v>0.01</v>
       </c>
       <c r="AM5">
-        <v>0.037</v>
+        <v>0.01</v>
       </c>
       <c r="AN5">
-        <v>0.1495412844036698</v>
+        <v>0.08830409356725145</v>
       </c>
       <c r="AO5">
-        <v>101.3513513513514</v>
+        <v>162</v>
       </c>
       <c r="AP5">
-        <v>-0.5465326899748201</v>
+        <v>-1.221637426900585</v>
       </c>
       <c r="AQ5">
-        <v>101.3513513513514</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EFU General Insurance Limited (KASE:EFUG)</t>
+          <t>Jubilee General Insurance Company Limited (KASE:JGICL)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1124,46 +1124,46 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.3720000000000001</v>
+        <v>0.0621</v>
       </c>
       <c r="E6">
-        <v>-0.0202</v>
+        <v>0.0317</v>
       </c>
       <c r="G6">
-        <v>0.1475867570801755</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="H6">
-        <v>0.1475867570801755</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="I6">
-        <v>0.1033107299561229</v>
+        <v>0.2983682983682984</v>
       </c>
       <c r="J6">
-        <v>0.06106470655399083</v>
+        <v>0.2111855048025261</v>
       </c>
       <c r="K6">
-        <v>10.9</v>
+        <v>10</v>
       </c>
       <c r="L6">
-        <v>0.04347826086956522</v>
+        <v>0.2331002331002331</v>
       </c>
       <c r="M6">
-        <v>22.9</v>
+        <v>3.21</v>
       </c>
       <c r="N6">
-        <v>0.160814606741573</v>
+        <v>0.05496575342465754</v>
       </c>
       <c r="O6">
-        <v>2.10091743119266</v>
+        <v>0.321</v>
       </c>
       <c r="P6">
-        <v>22.9</v>
+        <v>3.21</v>
       </c>
       <c r="Q6">
-        <v>0.160814606741573</v>
+        <v>0.05496575342465754</v>
       </c>
       <c r="R6">
-        <v>2.10091743119266</v>
+        <v>0.321</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1172,73 +1172,67 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>31.1</v>
+        <v>10.3</v>
       </c>
       <c r="V6">
-        <v>0.2183988764044944</v>
+        <v>0.1763698630136986</v>
       </c>
       <c r="W6">
-        <v>0.06426886792452831</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="X6">
-        <v>0.07779480811453948</v>
+        <v>0.08146968787465531</v>
       </c>
       <c r="Y6">
-        <v>-0.01352594019001117</v>
+        <v>0.124715879135654</v>
       </c>
       <c r="Z6">
-        <v>1.925499231950845</v>
+        <v>1.090077499682378</v>
       </c>
       <c r="AA6">
-        <v>0.1175800455690131</v>
+        <v>0.2302085670442986</v>
       </c>
       <c r="AB6">
-        <v>0.07770102957627682</v>
+        <v>0.08145344975705957</v>
       </c>
       <c r="AC6">
-        <v>0.03987901599273626</v>
+        <v>0.148755117287239</v>
       </c>
       <c r="AD6">
-        <v>0.851</v>
+        <v>0.03</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.851</v>
+        <v>0.03</v>
       </c>
       <c r="AG6">
-        <v>-30.249</v>
+        <v>-10.27</v>
       </c>
       <c r="AH6">
-        <v>0.005940621705956677</v>
+        <v>0.0005134348793428033</v>
       </c>
       <c r="AI6">
-        <v>0.005846747875315182</v>
+        <v>0.0005451571869889151</v>
       </c>
       <c r="AJ6">
-        <v>-0.2697167212062309</v>
+        <v>-0.2133804280074798</v>
       </c>
       <c r="AK6">
-        <v>-0.2642965111707194</v>
+        <v>-0.229599821149117</v>
       </c>
       <c r="AL6">
-        <v>0.079</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.079</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.02754045307443366</v>
-      </c>
-      <c r="AO6">
-        <v>327.8481012658228</v>
+        <v>0.002307692307692307</v>
       </c>
       <c r="AP6">
-        <v>-0.9789320388349516</v>
-      </c>
-      <c r="AQ6">
-        <v>327.8481012658228</v>
+        <v>-0.7900000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1249,7 +1243,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jubilee General Insurance Company Limited (KASE:JGICL)</t>
+          <t>Askari General Insurance Company Limited (KASE:AGIC)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1258,46 +1252,46 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0557</v>
+        <v>0.124</v>
       </c>
       <c r="E7">
-        <v>-0.012</v>
+        <v>0.154</v>
       </c>
       <c r="G7">
-        <v>0.2626262626262627</v>
+        <v>0.2613636363636364</v>
       </c>
       <c r="H7">
-        <v>0.2626262626262627</v>
+        <v>0.2613636363636364</v>
       </c>
       <c r="I7">
-        <v>0.2083333333333333</v>
+        <v>0.2628787878787879</v>
       </c>
       <c r="J7">
-        <v>0.1459886403975861</v>
+        <v>0.1871261430876816</v>
       </c>
       <c r="K7">
-        <v>6.58</v>
+        <v>2.4</v>
       </c>
       <c r="L7">
-        <v>0.1661616161616161</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="M7">
-        <v>4.53</v>
+        <v>1.13</v>
       </c>
       <c r="N7">
-        <v>0.07201907790143085</v>
+        <v>0.1008928571428571</v>
       </c>
       <c r="O7">
-        <v>0.6884498480243162</v>
+        <v>0.4708333333333333</v>
       </c>
       <c r="P7">
-        <v>4.53</v>
+        <v>1.13</v>
       </c>
       <c r="Q7">
-        <v>0.07201907790143085</v>
+        <v>0.1008928571428571</v>
       </c>
       <c r="R7">
-        <v>0.6884498480243162</v>
+        <v>0.4708333333333333</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1306,67 +1300,73 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>9.279999999999999</v>
+        <v>1.63</v>
       </c>
       <c r="V7">
-        <v>0.1475357710651828</v>
+        <v>0.1455357142857143</v>
       </c>
       <c r="W7">
-        <v>0.0995461422087746</v>
+        <v>0.2016806722689075</v>
       </c>
       <c r="X7">
-        <v>0.07763837559128015</v>
+        <v>0.08584197055099409</v>
       </c>
       <c r="Y7">
-        <v>0.02190776661749445</v>
+        <v>0.1158387017179135</v>
       </c>
       <c r="Z7">
-        <v>0.7266055045871561</v>
+        <v>1.145833333333333</v>
       </c>
       <c r="AA7">
-        <v>0.1060761497200809</v>
+        <v>0.2144153722879684</v>
       </c>
       <c r="AB7">
-        <v>0.07760490229908447</v>
+        <v>0.08275636571839719</v>
       </c>
       <c r="AC7">
-        <v>0.02847124742099645</v>
+        <v>0.1316590065695712</v>
       </c>
       <c r="AD7">
-        <v>0.135</v>
+        <v>1.05</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.135</v>
+        <v>1.05</v>
       </c>
       <c r="AG7">
-        <v>-9.145</v>
+        <v>-0.5799999999999998</v>
       </c>
       <c r="AH7">
-        <v>0.002141667327675101</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="AI7">
-        <v>0.002775778760152154</v>
+        <v>0.07749077490774908</v>
       </c>
       <c r="AJ7">
-        <v>-0.1701237094223793</v>
+        <v>-0.05461393596986816</v>
       </c>
       <c r="AK7">
-        <v>-0.2323719984754161</v>
+        <v>-0.04865771812080535</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>0.096</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>0.096</v>
       </c>
       <c r="AN7">
-        <v>0.01560693641618497</v>
+        <v>0.2974504249291785</v>
+      </c>
+      <c r="AO7">
+        <v>36.14583333333334</v>
       </c>
       <c r="AP7">
-        <v>-1.057225433526011</v>
+        <v>-0.1643059490084985</v>
+      </c>
+      <c r="AQ7">
+        <v>36.14583333333334</v>
       </c>
     </row>
     <row r="8">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Shaheen Insurance Company Limited (KASE:SHNI)</t>
+          <t>Adamjee Insurance Company Limited (KASE:AICL)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1386,43 +1386,46 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0688</v>
+        <v>0.133</v>
+      </c>
+      <c r="E8">
+        <v>-0.038</v>
       </c>
       <c r="G8">
-        <v>0.2757322175732217</v>
+        <v>0.08843537414965986</v>
       </c>
       <c r="H8">
-        <v>0.2757322175732217</v>
+        <v>0.08843537414965986</v>
       </c>
       <c r="I8">
-        <v>0.2970711297071129</v>
+        <v>0.08281458818484687</v>
       </c>
       <c r="J8">
-        <v>0.2259475307699355</v>
+        <v>0.06215694924318229</v>
       </c>
       <c r="K8">
-        <v>0.521</v>
+        <v>13.3</v>
       </c>
       <c r="L8">
-        <v>0.2179916317991632</v>
+        <v>0.06031746031746032</v>
       </c>
       <c r="M8">
-        <v>0.08599999999999999</v>
+        <v>5.08</v>
       </c>
       <c r="N8">
-        <v>0.05620915032679738</v>
+        <v>0.05906976744186047</v>
       </c>
       <c r="O8">
-        <v>0.1650671785028791</v>
+        <v>0.3819548872180451</v>
       </c>
       <c r="P8">
-        <v>0.08599999999999999</v>
+        <v>5.08</v>
       </c>
       <c r="Q8">
-        <v>0.05620915032679738</v>
+        <v>0.05906976744186047</v>
       </c>
       <c r="R8">
-        <v>0.1650671785028791</v>
+        <v>0.3819548872180451</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1431,73 +1434,73 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.08400000000000001</v>
+        <v>65.7</v>
       </c>
       <c r="V8">
-        <v>0.05490196078431372</v>
+        <v>0.7639534883720931</v>
       </c>
       <c r="W8">
-        <v>0.0966604823747681</v>
+        <v>0.1107410491257286</v>
       </c>
       <c r="X8">
-        <v>0.09135275095272491</v>
+        <v>0.08273079292098794</v>
       </c>
       <c r="Y8">
-        <v>0.005307731422043188</v>
+        <v>0.02801025620474064</v>
       </c>
       <c r="Z8">
-        <v>0.4661595474936611</v>
+        <v>2.834302564237534</v>
       </c>
       <c r="AA8">
-        <v>0.1053275987010232</v>
+        <v>0.1761716006251338</v>
       </c>
       <c r="AB8">
-        <v>0.08461333309577142</v>
+        <v>0.08185351921852008</v>
       </c>
       <c r="AC8">
-        <v>0.0207142656052518</v>
+        <v>0.09431808140661374</v>
       </c>
       <c r="AD8">
-        <v>0.517</v>
+        <v>1.93</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>0.4269165262063283</v>
       </c>
       <c r="AF8">
-        <v>0.517</v>
+        <v>2.356916526206328</v>
       </c>
       <c r="AG8">
-        <v>0.433</v>
+        <v>-63.34308347379368</v>
       </c>
       <c r="AH8">
-        <v>0.2525647288715193</v>
+        <v>0.02667495221505694</v>
       </c>
       <c r="AI8">
-        <v>0.1014322150284481</v>
+        <v>0.01820618464776435</v>
       </c>
       <c r="AJ8">
-        <v>0.2205807437595517</v>
+        <v>-2.795750401451466</v>
       </c>
       <c r="AK8">
-        <v>0.08637542389786555</v>
+        <v>-0.9935092053543314</v>
       </c>
       <c r="AL8">
-        <v>0.047</v>
+        <v>0.149</v>
       </c>
       <c r="AM8">
-        <v>0.047</v>
+        <v>0.149</v>
       </c>
       <c r="AN8">
-        <v>0.6875</v>
+        <v>0.09924920292090918</v>
       </c>
       <c r="AO8">
-        <v>15.1063829787234</v>
+        <v>122.1476510067114</v>
       </c>
       <c r="AP8">
-        <v>0.5757978723404256</v>
+        <v>-3.257383702241781</v>
       </c>
       <c r="AQ8">
-        <v>15.1063829787234</v>
+        <v>122.1476510067114</v>
       </c>
     </row>
     <row r="9">
@@ -1508,7 +1511,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Habib Insurance Company Limited (KASE:HICL)</t>
+          <t>Century Insurance Company Limited (KASE:CENI)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1517,46 +1520,46 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0259</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="E9">
-        <v>-0.243</v>
+        <v>0.011</v>
       </c>
       <c r="G9">
-        <v>0.2342007434944238</v>
+        <v>0.2271973466003317</v>
       </c>
       <c r="H9">
-        <v>0.2342007434944238</v>
+        <v>0.2271973466003317</v>
       </c>
       <c r="I9">
-        <v>0.1379182156133829</v>
+        <v>0.3499170812603648</v>
       </c>
       <c r="J9">
-        <v>0.09866621956789447</v>
+        <v>0.2587720129511174</v>
       </c>
       <c r="K9">
-        <v>0.459</v>
+        <v>1.56</v>
       </c>
       <c r="L9">
-        <v>0.08531598513011153</v>
+        <v>0.2587064676616915</v>
       </c>
       <c r="M9">
-        <v>0.58</v>
+        <v>0.528</v>
       </c>
       <c r="N9">
-        <v>0.06666666666666667</v>
+        <v>0.07384615384615384</v>
       </c>
       <c r="O9">
-        <v>1.263616557734205</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="P9">
-        <v>0.58</v>
+        <v>0.528</v>
       </c>
       <c r="Q9">
-        <v>0.06666666666666667</v>
+        <v>0.07384615384615384</v>
       </c>
       <c r="R9">
-        <v>1.263616557734205</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1565,73 +1568,73 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.182</v>
+        <v>2.3</v>
       </c>
       <c r="V9">
-        <v>0.02091954022988506</v>
+        <v>0.3216783216783216</v>
       </c>
       <c r="W9">
-        <v>0.03956896551724138</v>
+        <v>0.1431192660550459</v>
       </c>
       <c r="X9">
-        <v>0.08238644165964647</v>
+        <v>0.08313118168365589</v>
       </c>
       <c r="Y9">
-        <v>-0.04281747614240509</v>
+        <v>0.05998808437138999</v>
       </c>
       <c r="Z9">
-        <v>0.4565900025460409</v>
+        <v>0.5887521968365553</v>
       </c>
       <c r="AA9">
-        <v>0.04505000944371316</v>
+        <v>0.1523525911047879</v>
       </c>
       <c r="AB9">
-        <v>0.08051088745191348</v>
+        <v>0.08197619328293175</v>
       </c>
       <c r="AC9">
-        <v>-0.03546087800820032</v>
+        <v>0.07037639782185616</v>
       </c>
       <c r="AD9">
-        <v>1.03</v>
+        <v>0.257</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>1.03</v>
+        <v>0.257</v>
       </c>
       <c r="AG9">
-        <v>0.8480000000000001</v>
+        <v>-2.043</v>
       </c>
       <c r="AH9">
-        <v>0.1058581706063721</v>
+        <v>0.03469690832995815</v>
       </c>
       <c r="AI9">
-        <v>0.1297229219143577</v>
+        <v>0.02185931785319384</v>
       </c>
       <c r="AJ9">
-        <v>0.08881441139505657</v>
+        <v>-0.4000391619345994</v>
       </c>
       <c r="AK9">
-        <v>0.1093065222995618</v>
+        <v>-0.2160304536322301</v>
       </c>
       <c r="AL9">
-        <v>0.077</v>
+        <v>0.065</v>
       </c>
       <c r="AM9">
-        <v>0.077</v>
+        <v>0.065</v>
       </c>
       <c r="AN9">
-        <v>1.257631257631258</v>
+        <v>0.1168181818181818</v>
       </c>
       <c r="AO9">
-        <v>9.636363636363637</v>
+        <v>32.46153846153846</v>
       </c>
       <c r="AP9">
-        <v>1.035409035409036</v>
+        <v>-0.9286363636363635</v>
       </c>
       <c r="AQ9">
-        <v>9.636363636363637</v>
+        <v>32.46153846153846</v>
       </c>
     </row>
     <row r="10">
@@ -1642,7 +1645,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Adamjee Insurance Company Limited (KASE:AICL)</t>
+          <t>Reliance Insurance Company Limited (KASE:RICL)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1651,121 +1654,112 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.154</v>
+        <v>0.0276</v>
       </c>
       <c r="E10">
-        <v>-0.144</v>
+        <v>0.0358</v>
       </c>
       <c r="G10">
-        <v>0.09287749287749288</v>
+        <v>0.2482269503546099</v>
       </c>
       <c r="H10">
-        <v>0.09287749287749288</v>
+        <v>0.2482269503546099</v>
       </c>
       <c r="I10">
-        <v>0.05373162089572895</v>
+        <v>0.3088815651249737</v>
       </c>
       <c r="J10">
-        <v>0.02686581044786448</v>
+        <v>0.2390069651257047</v>
       </c>
       <c r="K10">
-        <v>4.79</v>
+        <v>0.667</v>
       </c>
       <c r="L10">
-        <v>0.02729344729344729</v>
+        <v>0.2365248226950355</v>
       </c>
       <c r="M10">
-        <v>5.52</v>
+        <v>-0</v>
       </c>
       <c r="N10">
-        <v>0.05804416403785489</v>
+        <v>-0</v>
       </c>
       <c r="O10">
-        <v>1.152400835073069</v>
+        <v>-0</v>
       </c>
       <c r="P10">
-        <v>5.52</v>
+        <v>-0</v>
       </c>
       <c r="Q10">
-        <v>0.05804416403785489</v>
+        <v>-0</v>
       </c>
       <c r="R10">
-        <v>1.152400835073069</v>
+        <v>-0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
       <c r="U10">
-        <v>44.4</v>
+        <v>1.19</v>
       </c>
       <c r="V10">
-        <v>0.4668769716088328</v>
+        <v>0.4327272727272727</v>
       </c>
       <c r="W10">
-        <v>0.03100323624595469</v>
+        <v>0.1212727272727273</v>
       </c>
       <c r="X10">
-        <v>0.07836912471575258</v>
+        <v>0.08169746384077101</v>
       </c>
       <c r="Y10">
-        <v>-0.04736588846979789</v>
+        <v>0.03957526343195628</v>
       </c>
       <c r="Z10">
-        <v>1.393570488762352</v>
+        <v>0.6330293243448999</v>
       </c>
       <c r="AA10">
-        <v>0.0374394005968272</v>
+        <v>0.1512984176472499</v>
       </c>
       <c r="AB10">
-        <v>0.077965253803522</v>
+        <v>0.08155021050550137</v>
       </c>
       <c r="AC10">
-        <v>-0.04052585320669479</v>
+        <v>0.06974820714174848</v>
       </c>
       <c r="AD10">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.2355026639978496</v>
+        <v>0.01476993173787107</v>
       </c>
       <c r="AF10">
-        <v>1.90550266399785</v>
+        <v>0.01476993173787107</v>
       </c>
       <c r="AG10">
-        <v>-42.49449733600215</v>
+        <v>-1.175230068262129</v>
       </c>
       <c r="AH10">
-        <v>0.01964324302919208</v>
+        <v>0.005342191973488017</v>
       </c>
       <c r="AI10">
-        <v>0.01536627506894554</v>
+        <v>0.002509857124271511</v>
       </c>
       <c r="AJ10">
-        <v>-0.8077956712517934</v>
+        <v>-0.7462868350332156</v>
       </c>
       <c r="AK10">
-        <v>-0.5338135670766965</v>
+        <v>-0.2503275102614222</v>
       </c>
       <c r="AL10">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="AN10">
-        <v>0.1492804147671404</v>
-      </c>
-      <c r="AO10">
-        <v>89.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>-3.798560591400925</v>
-      </c>
-      <c r="AQ10">
-        <v>89.42857142857143</v>
+        <v>-1.237084282381188</v>
       </c>
     </row>
     <row r="11">
@@ -1776,7 +1770,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Century Insurance Company Limited (KASE:CENI)</t>
+          <t>TPL Insurance Limited (KASE:TPLI)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1785,115 +1779,118 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.0536</v>
+        <v>0.141</v>
       </c>
       <c r="E11">
-        <v>-0.179</v>
+        <v>0.118</v>
       </c>
       <c r="G11">
-        <v>0.1786813186813187</v>
+        <v>0.054375</v>
       </c>
       <c r="H11">
-        <v>0.1786813186813187</v>
+        <v>0.054375</v>
       </c>
       <c r="I11">
-        <v>0.1145054945054945</v>
+        <v>0.06268415478958711</v>
       </c>
       <c r="J11">
-        <v>0.07327535209888152</v>
+        <v>0.03677599793382897</v>
       </c>
       <c r="K11">
-        <v>0.36</v>
+        <v>0.378</v>
       </c>
       <c r="L11">
-        <v>0.07912087912087912</v>
+        <v>0.02625</v>
       </c>
       <c r="M11">
-        <v>0.407</v>
+        <v>-0</v>
       </c>
       <c r="N11">
-        <v>0.06271186440677966</v>
+        <v>-0</v>
       </c>
       <c r="O11">
-        <v>1.130555555555556</v>
+        <v>-0</v>
       </c>
       <c r="P11">
-        <v>0.407</v>
+        <v>-0</v>
       </c>
       <c r="Q11">
-        <v>0.06271186440677966</v>
+        <v>-0</v>
       </c>
       <c r="R11">
-        <v>1.130555555555556</v>
+        <v>-0</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
       <c r="U11">
-        <v>0.945</v>
+        <v>7.56</v>
       </c>
       <c r="V11">
-        <v>0.1456086286594761</v>
+        <v>0.4247191011235955</v>
       </c>
       <c r="W11">
-        <v>0.02553191489361702</v>
+        <v>0.06935779816513761</v>
       </c>
       <c r="X11">
-        <v>0.07935697504549795</v>
+        <v>0.08665338178176769</v>
       </c>
       <c r="Y11">
-        <v>-0.05382506015188093</v>
+        <v>-0.01729558361663008</v>
       </c>
       <c r="Z11">
-        <v>0.4623983739837398</v>
+        <v>3.481001228799186</v>
       </c>
       <c r="AA11">
-        <v>0.03388240366360883</v>
+        <v>0.128017293997975</v>
       </c>
       <c r="AB11">
-        <v>0.0787349448985807</v>
+        <v>0.08340290292316348</v>
       </c>
       <c r="AC11">
-        <v>-0.04485254123497186</v>
+        <v>0.04461439107481151</v>
       </c>
       <c r="AD11">
-        <v>0.287</v>
+        <v>1.82</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.156740855149728</v>
       </c>
       <c r="AF11">
-        <v>0.287</v>
+        <v>1.976740855149728</v>
       </c>
       <c r="AG11">
-        <v>-0.6579999999999999</v>
+        <v>-5.583259144850271</v>
       </c>
       <c r="AH11">
-        <v>0.04234912203039692</v>
+        <v>0.0999528117209969</v>
       </c>
       <c r="AI11">
-        <v>0.02565477786716724</v>
+        <v>0.2870357541726827</v>
       </c>
       <c r="AJ11">
-        <v>-0.1128257887517146</v>
+        <v>-0.4570170728060223</v>
       </c>
       <c r="AK11">
-        <v>-0.06424526459675843</v>
+        <v>8.29288274441776</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>0.225</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>0.225</v>
       </c>
       <c r="AN11">
-        <v>0.4689542483660131</v>
+        <v>11.51898734177215</v>
+      </c>
+      <c r="AO11">
+        <v>3.893333333333333</v>
       </c>
       <c r="AP11">
-        <v>-1.07516339869281</v>
+        <v>-35.33708319525488</v>
+      </c>
+      <c r="AQ11">
+        <v>3.893333333333333</v>
       </c>
     </row>
     <row r="12">
@@ -1904,7 +1901,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Reliance Insurance Company Limited (KASE:RICL)</t>
+          <t>The United Insurance Company of Pakistan Limited (KASE:UNIC)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1913,109 +1910,121 @@
         </is>
       </c>
       <c r="D12">
-        <v>-0.0391</v>
+        <v>0.0339</v>
+      </c>
+      <c r="E12">
+        <v>-0.0105</v>
       </c>
       <c r="G12">
-        <v>0.2430622009569378</v>
+        <v>0.2688741721854305</v>
       </c>
       <c r="H12">
-        <v>0.2430622009569378</v>
+        <v>0.2688741721854305</v>
       </c>
       <c r="I12">
-        <v>-0.05789473684210526</v>
+        <v>0.2551321983380134</v>
       </c>
       <c r="J12">
-        <v>-0.05789473684210526</v>
+        <v>0.1707180882706213</v>
       </c>
       <c r="K12">
-        <v>-0.067</v>
+        <v>2.71</v>
       </c>
       <c r="L12">
-        <v>-0.03205741626794259</v>
+        <v>0.1794701986754967</v>
       </c>
       <c r="M12">
-        <v>-0</v>
+        <v>1.18</v>
       </c>
       <c r="N12">
-        <v>-0</v>
+        <v>0.07919463087248321</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.4354243542435424</v>
       </c>
       <c r="P12">
-        <v>-0</v>
+        <v>1.18</v>
       </c>
       <c r="Q12">
-        <v>-0</v>
+        <v>0.07919463087248321</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>0.4354243542435424</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
       <c r="U12">
-        <v>1.06</v>
+        <v>3.25</v>
       </c>
       <c r="V12">
-        <v>0.5856353591160222</v>
+        <v>0.2181208053691275</v>
       </c>
       <c r="W12">
-        <v>-0.009517045454545455</v>
+        <v>0.1183406113537118</v>
       </c>
       <c r="X12">
-        <v>0.07755071037458064</v>
+        <v>0.08341743597535037</v>
       </c>
       <c r="Y12">
-        <v>-0.0870677558291261</v>
+        <v>0.03492317537836143</v>
       </c>
       <c r="Z12">
-        <v>0.3692579505300353</v>
+        <v>0.7340959203419021</v>
       </c>
       <c r="AA12">
-        <v>-0.02137809187279152</v>
+        <v>0.1253234521280318</v>
       </c>
       <c r="AB12">
-        <v>0.07755071037458064</v>
+        <v>0.08223577373715552</v>
       </c>
       <c r="AC12">
-        <v>-0.09892880224737216</v>
+        <v>0.04308767839087632</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>0.519</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>0.1075190254799902</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>0.6265190254799902</v>
       </c>
       <c r="AG12">
-        <v>-1.06</v>
+        <v>-2.62348097452001</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>0.04035154463481694</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>0.02309618218583445</v>
       </c>
       <c r="AJ12">
-        <v>-1.413333333333333</v>
+        <v>-0.2136990924768625</v>
       </c>
       <c r="AK12">
-        <v>-0.2387387387387388</v>
+        <v>-0.1098770290476742</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="AN12">
-        <v>-0</v>
+        <v>0.1157448706512043</v>
+      </c>
+      <c r="AO12">
+        <v>173.6363636363636</v>
       </c>
       <c r="AP12">
-        <v>33.125</v>
+        <v>-0.5850760424888515</v>
+      </c>
+      <c r="AQ12">
+        <v>173.6363636363636</v>
       </c>
     </row>
     <row r="13">
@@ -2026,7 +2035,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The Universal Insurance Company Limited (KASE:UVIC)</t>
+          <t>Shaheen Insurance Company Limited (KASE:SHNI)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2035,25 +2044,28 @@
         </is>
       </c>
       <c r="D13">
-        <v>-0.125</v>
+        <v>0.0507</v>
+      </c>
+      <c r="E13">
+        <v>0.626</v>
       </c>
       <c r="G13">
-        <v>-1.71078431372549</v>
+        <v>0.2341836734693878</v>
       </c>
       <c r="H13">
-        <v>-1.71078431372549</v>
+        <v>0.2341836734693878</v>
       </c>
       <c r="I13">
-        <v>-1.044117647058824</v>
+        <v>0.1326530612244898</v>
       </c>
       <c r="J13">
-        <v>-1.044117647058824</v>
+        <v>0.1021787093215665</v>
       </c>
       <c r="K13">
-        <v>-0.056</v>
+        <v>0.285</v>
       </c>
       <c r="L13">
-        <v>-0.2745098039215687</v>
+        <v>0.1454081632653061</v>
       </c>
       <c r="M13">
         <v>-0</v>
@@ -2062,7 +2074,7 @@
         <v>-0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P13">
         <v>-0</v>
@@ -2071,73 +2083,79 @@
         <v>-0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0.318</v>
+        <v>2.39</v>
       </c>
       <c r="V13">
-        <v>0.1639175257731959</v>
+        <v>1.475308641975309</v>
       </c>
       <c r="W13">
-        <v>-0.009105691056910569</v>
+        <v>0.06222707423580785</v>
       </c>
       <c r="X13">
-        <v>0.07755071037458064</v>
+        <v>0.08526664280638453</v>
       </c>
       <c r="Y13">
-        <v>-0.08665640143149121</v>
+        <v>-0.02303956857057668</v>
       </c>
       <c r="Z13">
-        <v>0.03332244364586736</v>
+        <v>1.033210332103321</v>
       </c>
       <c r="AA13">
-        <v>-0.03479255145377327</v>
+        <v>0.1055720981920244</v>
       </c>
       <c r="AB13">
-        <v>0.07755071037458064</v>
+        <v>0.08292097603702908</v>
       </c>
       <c r="AC13">
-        <v>-0.1123432618283539</v>
+        <v>0.0226511221549953</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>0.132</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>0.132</v>
       </c>
       <c r="AG13">
-        <v>-0.318</v>
+        <v>-2.258</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>0.07534246575342465</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>0.03241650294695481</v>
       </c>
       <c r="AJ13">
-        <v>-0.1960542540073983</v>
+        <v>3.539184952978057</v>
       </c>
       <c r="AK13">
-        <v>-0.06835769561478934</v>
+        <v>-1.342449464922711</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="AN13">
-        <v>-0</v>
+        <v>0.4731182795698924</v>
+      </c>
+      <c r="AO13">
+        <v>7.878787878787879</v>
       </c>
       <c r="AP13">
-        <v>1.65625</v>
+        <v>-8.093189964157705</v>
+      </c>
+      <c r="AQ13">
+        <v>7.878787878787879</v>
       </c>
     </row>
     <row r="14">
@@ -2157,25 +2175,28 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.104</v>
+        <v>-0.0658</v>
+      </c>
+      <c r="E14">
+        <v>-0.119</v>
       </c>
       <c r="G14">
-        <v>-1.063636363636363</v>
+        <v>0.3528301886792453</v>
       </c>
       <c r="H14">
-        <v>-1.063636363636363</v>
+        <v>0.3528301886792453</v>
       </c>
       <c r="I14">
-        <v>-0.1912963061071832</v>
+        <v>0.3467645229494139</v>
       </c>
       <c r="J14">
-        <v>-0.1912963061071832</v>
+        <v>0.2113416915017138</v>
       </c>
       <c r="K14">
-        <v>-0.233</v>
+        <v>0.272</v>
       </c>
       <c r="L14">
-        <v>-0.2118181818181818</v>
+        <v>0.2566037735849057</v>
       </c>
       <c r="M14">
         <v>-0</v>
@@ -2184,7 +2205,7 @@
         <v>-0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P14">
         <v>-0</v>
@@ -2193,79 +2214,79 @@
         <v>-0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="V14">
-        <v>0.02483221476510067</v>
+        <v>0.02526315789473685</v>
       </c>
       <c r="W14">
-        <v>-0.03929173693086004</v>
+        <v>0.0609865470852018</v>
       </c>
       <c r="X14">
-        <v>0.07939094212442493</v>
+        <v>0.08233778170708107</v>
       </c>
       <c r="Y14">
-        <v>-0.118682679055285</v>
+        <v>-0.02135123462187927</v>
       </c>
       <c r="Z14">
-        <v>0.1938623297915408</v>
+        <v>0.2473083040959696</v>
       </c>
       <c r="AA14">
-        <v>-0.03708514758245429</v>
+        <v>0.05226655531006243</v>
       </c>
       <c r="AB14">
-        <v>0.07875625453379645</v>
+        <v>0.08181120094592903</v>
       </c>
       <c r="AC14">
-        <v>-0.1158414021162507</v>
+        <v>-0.0295446456358666</v>
       </c>
       <c r="AD14">
-        <v>0.03</v>
+        <v>0.019</v>
       </c>
       <c r="AE14">
-        <v>0.03712968358950721</v>
+        <v>0.01714802836810597</v>
       </c>
       <c r="AF14">
-        <v>0.06712968358950722</v>
+        <v>0.03614802836810597</v>
       </c>
       <c r="AG14">
-        <v>0.03012968358950722</v>
+        <v>-0.01185197163189403</v>
       </c>
       <c r="AH14">
-        <v>0.04311117069887163</v>
+        <v>0.01867007472490291</v>
       </c>
       <c r="AI14">
-        <v>0.01512907856576355</v>
+        <v>0.008298163453744635</v>
       </c>
       <c r="AJ14">
-        <v>0.01982046921046993</v>
+        <v>-0.006277035197360818</v>
       </c>
       <c r="AK14">
-        <v>0.006847453542534736</v>
+        <v>-0.002751059516491004</v>
       </c>
       <c r="AL14">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="AM14">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="AN14">
-        <v>-0.375</v>
+        <v>0.03958333333333333</v>
       </c>
       <c r="AO14">
-        <v>-36.83333333333334</v>
+        <v>71.8</v>
       </c>
       <c r="AP14">
-        <v>-0.3766210448688402</v>
+        <v>-0.0246916075664459</v>
       </c>
       <c r="AQ14">
-        <v>-36.83333333333334</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="15">
@@ -2276,7 +2297,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TPL Insurance Limited (KASE:TPLI)</t>
+          <t>Habib Insurance Company Limited (KASE:HICL)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2285,43 +2306,46 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.0364</v>
+        <v>0.0247</v>
+      </c>
+      <c r="E15">
+        <v>-0.285</v>
       </c>
       <c r="G15">
-        <v>0.02688971499380421</v>
+        <v>0.158</v>
       </c>
       <c r="H15">
-        <v>0.02688971499380421</v>
+        <v>0.158</v>
       </c>
       <c r="I15">
-        <v>-0.04219181544402861</v>
+        <v>0.1098</v>
       </c>
       <c r="J15">
-        <v>-0.04219181544402861</v>
+        <v>0.06933380281690142</v>
       </c>
       <c r="K15">
-        <v>-0.551</v>
+        <v>0.269</v>
       </c>
       <c r="L15">
-        <v>-0.06827757125154894</v>
+        <v>0.0538</v>
       </c>
       <c r="M15">
-        <v>1.19</v>
+        <v>0.365</v>
       </c>
       <c r="N15">
-        <v>0.07628205128205127</v>
+        <v>0.05572519083969465</v>
       </c>
       <c r="O15">
-        <v>-2.159709618874773</v>
+        <v>1.356877323420074</v>
       </c>
       <c r="P15">
-        <v>1.19</v>
+        <v>0.365</v>
       </c>
       <c r="Q15">
-        <v>0.07628205128205127</v>
+        <v>0.05572519083969465</v>
       </c>
       <c r="R15">
-        <v>-2.159709618874773</v>
+        <v>1.356877323420074</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2330,73 +2354,73 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>3.17</v>
+        <v>0.162</v>
       </c>
       <c r="V15">
-        <v>0.2032051282051282</v>
+        <v>0.02473282442748092</v>
       </c>
       <c r="W15">
-        <v>-0.06129032258064517</v>
+        <v>0.03892908827785818</v>
       </c>
       <c r="X15">
-        <v>0.08253187048544457</v>
+        <v>0.09032336184528034</v>
       </c>
       <c r="Y15">
-        <v>-0.1438221930660897</v>
+        <v>-0.05139427356742216</v>
       </c>
       <c r="Z15">
-        <v>1.33114724905676</v>
+        <v>0.6444960041247745</v>
       </c>
       <c r="AA15">
-        <v>-0.05616351906102918</v>
+        <v>0.04468535886626799</v>
       </c>
       <c r="AB15">
-        <v>0.08059023473049781</v>
+        <v>0.08387980064076814</v>
       </c>
       <c r="AC15">
-        <v>-0.136753753791527</v>
+        <v>-0.03919444177450015</v>
       </c>
       <c r="AD15">
-        <v>1.7</v>
+        <v>1.24</v>
       </c>
       <c r="AE15">
-        <v>0.2024397531665546</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>1.902439753166555</v>
+        <v>1.24</v>
       </c>
       <c r="AG15">
-        <v>-1.267560246833445</v>
+        <v>1.078</v>
       </c>
       <c r="AH15">
-        <v>0.1086956892865387</v>
+        <v>0.159178433889602</v>
       </c>
       <c r="AI15">
-        <v>0.2587494514793148</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AJ15">
-        <v>-0.08843994941987426</v>
+        <v>0.1413214472994232</v>
       </c>
       <c r="AK15">
-        <v>-0.3030671860542082</v>
+        <v>0.126555529467011</v>
       </c>
       <c r="AL15">
-        <v>0.132</v>
+        <v>0.106</v>
       </c>
       <c r="AM15">
-        <v>0.132</v>
+        <v>0.106</v>
       </c>
       <c r="AN15">
-        <v>-14.16666666666667</v>
+        <v>2.535787321063395</v>
       </c>
       <c r="AO15">
-        <v>-2.727272727272727</v>
+        <v>5.179245283018869</v>
       </c>
       <c r="AP15">
-        <v>10.56300205694538</v>
+        <v>2.204498977505112</v>
       </c>
       <c r="AQ15">
-        <v>-2.727272727272727</v>
+        <v>5.179245283018869</v>
       </c>
     </row>
     <row r="16">
@@ -2407,7 +2431,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The Pakistan General Insurance Company Limited (KASE:PKGI)</t>
+          <t>The Universal Insurance Company Limited (KASE:UVIC)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2415,23 +2439,26 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D16">
+        <v>0.284</v>
+      </c>
       <c r="G16">
-        <v>-0</v>
+        <v>0.2188365650969529</v>
       </c>
       <c r="H16">
-        <v>-0</v>
+        <v>0.2188365650969529</v>
       </c>
       <c r="I16">
-        <v>65.81818181818181</v>
+        <v>0.08725761772853186</v>
       </c>
       <c r="J16">
-        <v>65.81818181818181</v>
+        <v>0.08725761772853186</v>
       </c>
       <c r="K16">
-        <v>-0.585</v>
+        <v>-0.345</v>
       </c>
       <c r="L16">
-        <v>53.18181818181818</v>
+        <v>-0.4778393351800554</v>
       </c>
       <c r="M16">
         <v>-0</v>
@@ -2455,67 +2482,67 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0.165</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="V16">
-        <v>0.2202937249666222</v>
+        <v>0.04883720930232559</v>
       </c>
       <c r="W16">
-        <v>-0.1266233766233766</v>
+        <v>-0.06941649899396378</v>
       </c>
       <c r="X16">
-        <v>0.08453098226985759</v>
+        <v>0.08144559816293993</v>
       </c>
       <c r="Y16">
-        <v>-0.2111543588932342</v>
+        <v>-0.1508620971569037</v>
       </c>
       <c r="Z16">
-        <v>-0.002046892445106066</v>
+        <v>0.1552020636285469</v>
       </c>
       <c r="AA16">
-        <v>-0.1347227391142538</v>
+        <v>0.01354256233877902</v>
       </c>
       <c r="AB16">
-        <v>0.08252090724962177</v>
+        <v>0.08144559816293993</v>
       </c>
       <c r="AC16">
-        <v>-0.2172436463638756</v>
+        <v>-0.06790303582416091</v>
       </c>
       <c r="AD16">
-        <v>0.128</v>
+        <v>0</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0.128</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>-0.03700000000000001</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="AH16">
-        <v>0.1459521094640821</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>0.04371584699453552</v>
+        <v>0</v>
       </c>
       <c r="AJ16">
-        <v>-0.05196629213483147</v>
+        <v>-0.05134474327628363</v>
       </c>
       <c r="AK16">
-        <v>-0.01339124140427072</v>
+        <v>-0.01740571902196436</v>
       </c>
       <c r="AL16">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="AM16">
-        <v>0.031</v>
-      </c>
-      <c r="AO16">
-        <v>-23.35483870967742</v>
-      </c>
-      <c r="AQ16">
-        <v>-23.35483870967742</v>
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>-0.9767441860465118</v>
       </c>
     </row>
     <row r="17">
@@ -2526,127 +2553,252 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>The Pakistan General Insurance Company Limited (KASE:PKGI)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Insurance (Prop/Cas.)</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>-0.654</v>
+      </c>
+      <c r="E17">
+        <v>-0.14</v>
+      </c>
+      <c r="G17">
+        <v>-27.55555555555556</v>
+      </c>
+      <c r="H17">
+        <v>-27.55555555555556</v>
+      </c>
+      <c r="I17">
+        <v>-15.22222222222222</v>
+      </c>
+      <c r="J17">
+        <v>-15.22222222222222</v>
+      </c>
+      <c r="K17">
+        <v>0.134</v>
+      </c>
+      <c r="L17">
+        <v>14.88888888888889</v>
+      </c>
+      <c r="M17">
+        <v>-0</v>
+      </c>
+      <c r="N17">
+        <v>-0</v>
+      </c>
+      <c r="O17">
+        <v>-0</v>
+      </c>
+      <c r="P17">
+        <v>-0</v>
+      </c>
+      <c r="Q17">
+        <v>-0</v>
+      </c>
+      <c r="R17">
+        <v>-0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0.003</v>
+      </c>
+      <c r="V17">
+        <v>0.00334075723830735</v>
+      </c>
+      <c r="W17">
+        <v>0.04785714285714286</v>
+      </c>
+      <c r="X17">
+        <v>0.08144559816293993</v>
+      </c>
+      <c r="Y17">
+        <v>-0.03358845530579707</v>
+      </c>
+      <c r="Z17">
+        <v>0.003257328990228013</v>
+      </c>
+      <c r="AA17">
+        <v>-0.04958378574013754</v>
+      </c>
+      <c r="AB17">
+        <v>0.08144559816293993</v>
+      </c>
+      <c r="AC17">
+        <v>-0.1310293839030775</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>-0.003</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>-0.00335195530726257</v>
+      </c>
+      <c r="AK17">
+        <v>-0.001084206722081677</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>-0</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Premier Insurance Limited (KASE:PINL)</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
-      <c r="D17">
-        <v>-0.368</v>
-      </c>
-      <c r="G17">
-        <v>-0.3595706618962433</v>
-      </c>
-      <c r="H17">
-        <v>-0.3595706618962433</v>
-      </c>
-      <c r="I17">
-        <v>-2.361359570661896</v>
-      </c>
-      <c r="J17">
-        <v>-2.361359570661896</v>
-      </c>
-      <c r="K17">
-        <v>-0.93</v>
-      </c>
-      <c r="L17">
-        <v>-1.663685152057245</v>
-      </c>
-      <c r="M17">
-        <v>0.004</v>
-      </c>
-      <c r="N17">
-        <v>0.002072538860103627</v>
-      </c>
-      <c r="O17">
-        <v>-0.004301075268817204</v>
-      </c>
-      <c r="P17">
-        <v>0.004</v>
-      </c>
-      <c r="Q17">
-        <v>0.002072538860103627</v>
-      </c>
-      <c r="R17">
-        <v>-0.004301075268817204</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0.428</v>
-      </c>
-      <c r="V17">
-        <v>0.2217616580310881</v>
-      </c>
-      <c r="W17">
-        <v>-0.1175726927939317</v>
-      </c>
-      <c r="X17">
-        <v>0.08104268293844803</v>
-      </c>
-      <c r="Y17">
-        <v>-0.1986153757323798</v>
-      </c>
-      <c r="Z17">
-        <v>0.0760544217687075</v>
-      </c>
-      <c r="AA17">
-        <v>-0.1795918367346939</v>
-      </c>
-      <c r="AB17">
-        <v>0.07975309528956732</v>
-      </c>
-      <c r="AC17">
-        <v>-0.2593449320242612</v>
-      </c>
-      <c r="AD17">
-        <v>0.165</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0.165</v>
-      </c>
-      <c r="AG17">
-        <v>-0.263</v>
-      </c>
-      <c r="AH17">
-        <v>0.07875894988066827</v>
-      </c>
-      <c r="AI17">
-        <v>0.02654867256637168</v>
-      </c>
-      <c r="AJ17">
-        <v>-0.1577684463107379</v>
-      </c>
-      <c r="AK17">
-        <v>-0.0454466908588215</v>
-      </c>
-      <c r="AL17">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="AM17">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="AN17">
-        <v>-0.1330645161290323</v>
-      </c>
-      <c r="AO17">
-        <v>-146.6666666666667</v>
-      </c>
-      <c r="AP17">
-        <v>0.2120967741935484</v>
-      </c>
-      <c r="AQ17">
-        <v>-146.6666666666667</v>
+      <c r="D18">
+        <v>-0.235</v>
+      </c>
+      <c r="G18">
+        <v>-1.741007194244604</v>
+      </c>
+      <c r="H18">
+        <v>-1.741007194244604</v>
+      </c>
+      <c r="I18">
+        <v>-1.014388489208633</v>
+      </c>
+      <c r="J18">
+        <v>-1.014388489208633</v>
+      </c>
+      <c r="K18">
+        <v>-0.573</v>
+      </c>
+      <c r="L18">
+        <v>-0.4122302158273381</v>
+      </c>
+      <c r="M18">
+        <v>0.017</v>
+      </c>
+      <c r="N18">
+        <v>0.01111111111111111</v>
+      </c>
+      <c r="O18">
+        <v>-0.02966841186736475</v>
+      </c>
+      <c r="P18">
+        <v>0.017</v>
+      </c>
+      <c r="Q18">
+        <v>0.01111111111111111</v>
+      </c>
+      <c r="R18">
+        <v>-0.02966841186736475</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0.312</v>
+      </c>
+      <c r="V18">
+        <v>0.203921568627451</v>
+      </c>
+      <c r="W18">
+        <v>-0.09471074380165288</v>
+      </c>
+      <c r="X18">
+        <v>0.08349915424136871</v>
+      </c>
+      <c r="Y18">
+        <v>-0.1782098980430216</v>
+      </c>
+      <c r="Z18">
+        <v>0.2401935372386383</v>
+      </c>
+      <c r="AA18">
+        <v>-0.2436495593571799</v>
+      </c>
+      <c r="AB18">
+        <v>0.08238113498563818</v>
+      </c>
+      <c r="AC18">
+        <v>-0.3260306943428181</v>
+      </c>
+      <c r="AD18">
+        <v>0.067</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0.067</v>
+      </c>
+      <c r="AG18">
+        <v>-0.245</v>
+      </c>
+      <c r="AH18">
+        <v>0.0419536631183469</v>
+      </c>
+      <c r="AI18">
+        <v>0.009828370250843479</v>
+      </c>
+      <c r="AJ18">
+        <v>-0.1906614785992218</v>
+      </c>
+      <c r="AK18">
+        <v>-0.03766333589546503</v>
+      </c>
+      <c r="AL18">
+        <v>0.01</v>
+      </c>
+      <c r="AM18">
+        <v>0.01</v>
+      </c>
+      <c r="AN18">
+        <v>-0.04926470588235294</v>
+      </c>
+      <c r="AO18">
+        <v>-141</v>
+      </c>
+      <c r="AP18">
+        <v>0.1801470588235294</v>
+      </c>
+      <c r="AQ18">
+        <v>-141</v>
       </c>
     </row>
   </sheetData>
